--- a/QA.xlsx
+++ b/QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-PC\Desktop\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77697B1-D0B0-4BF4-99E0-A16200E0F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BDCA29-7192-47F3-B563-121655DC3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="135" windowWidth="19305" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
-    <t>вопрос</t>
-  </si>
-  <si>
-    <t>ответ</t>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Ответ</t>
   </si>
   <si>
     <t>Не могу войти в корпоративную почту, пишет «Неверный пароль».</t>
@@ -667,10 +667,10 @@
     <t>Скачайте файл и откройте через Acrobat Reader или обновите плагин PDF.</t>
   </si>
   <si>
-    <t>Как тебя зовут</t>
-  </si>
-  <si>
-    <t>Костя</t>
+    <t>Как обновить свой контактный номер в Outlook-каталоге.</t>
+  </si>
+  <si>
+    <t>На портале профиля → «Личные данные» → Изменить телефон → Сохранить.</t>
   </si>
 </sst>
 </file>
@@ -718,36 +718,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -756,14 +730,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -984,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="1" sqref="A1:A1048576 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1794,11 +1767,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>201</v>
       </c>
     </row>
